--- a/BuildTool/Config/Test/StringTest.xlsx
+++ b/BuildTool/Config/Test/StringTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,14 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>str1|str2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|str1|str2|  |</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>str1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,7 +167,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
+    <t xml:space="preserve">,str1,str2, ,  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(str1),(你,和我)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +577,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -727,38 +723,34 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>25</v>
       </c>
